--- a/‏‏אור- הוצאות הכנסות גרסה 4- פורמט.xlsx
+++ b/‏‏אור- הוצאות הכנסות גרסה 4- פורמט.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אור כהן\Desktop\אור\הוצאות הכנסות\אור- הוצאות הכנסות - פורמטים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90F4CAB-EA98-4B3A-9866-F6908F53E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802656D7-4786-4E2B-8428-767607BF408E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,121 +427,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,7 +833,7 @@
   <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="51" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -864,74 +870,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:30" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:30" s="8" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:30" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:30" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -941,95 +947,95 @@
       <c r="X5" s="13"/>
     </row>
     <row r="6" spans="1:30" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="P6" s="26" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="P6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
       <c r="W6" s="13"/>
-      <c r="X6" s="21" t="s">
+      <c r="X6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
     </row>
     <row r="7" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="33" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="21" t="s">
+      <c r="L7" s="32"/>
+      <c r="M7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="21"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="33" t="s">
+      <c r="R7" s="46"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="33"/>
-      <c r="V7" s="23"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="45"/>
       <c r="W7" s="13"/>
       <c r="X7" s="35"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
       <c r="AD7" s="35"/>
     </row>
     <row r="8" spans="1:30" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
@@ -1042,368 +1048,368 @@
       <c r="I8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="M8" s="45"/>
+      <c r="P8" s="45"/>
       <c r="Q8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="23"/>
+      <c r="S8" s="45"/>
       <c r="T8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="23"/>
+      <c r="V8" s="45"/>
       <c r="W8" s="13"/>
       <c r="X8" s="37"/>
-      <c r="Y8" s="32" t="s">
+      <c r="Y8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
       <c r="AD8" s="37"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17" t="b">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="b">
         <f t="shared" ref="D9:D69" si="0">IF(ISNUMBER($A$9),(IF(ISNUMBER($B$9),(IF(ISNUMBER(C9),DATE($A$9,$B$9,C9))))))</f>
         <v>0</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="16"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="16" t="s">
+      <c r="M9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="14">
         <v>8</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="16" t="s">
+      <c r="S9" s="45"/>
+      <c r="T9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="14">
         <v>1866</v>
       </c>
-      <c r="V9" s="23"/>
+      <c r="V9" s="45"/>
       <c r="W9" s="13"/>
       <c r="X9" s="37"/>
-      <c r="Y9" s="28" t="s">
+      <c r="Y9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="28"/>
+      <c r="Z9" s="42"/>
       <c r="AA9" s="35"/>
-      <c r="AB9" s="30" t="s">
+      <c r="AB9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="30"/>
+      <c r="AC9" s="33"/>
       <c r="AD9" s="37"/>
     </row>
     <row r="10" spans="1:30" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="16"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="16" t="s">
+      <c r="M10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="14">
         <v>9.9</v>
       </c>
-      <c r="S10" s="23"/>
-      <c r="T10" s="16" t="s">
+      <c r="S10" s="45"/>
+      <c r="T10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="14">
         <v>400</v>
       </c>
-      <c r="V10" s="23"/>
+      <c r="V10" s="45"/>
       <c r="W10" s="13"/>
       <c r="X10" s="37"/>
-      <c r="Y10" s="22">
+      <c r="Y10" s="26">
         <f>SUM(R26+F75)</f>
         <v>29.799999999999997</v>
       </c>
-      <c r="Z10" s="22"/>
+      <c r="Z10" s="26"/>
       <c r="AA10" s="36"/>
-      <c r="AB10" s="22">
+      <c r="AB10" s="26">
         <f>SUM(U26,K75)</f>
         <v>2266</v>
       </c>
-      <c r="AC10" s="22"/>
+      <c r="AC10" s="26"/>
       <c r="AD10" s="37"/>
     </row>
     <row r="11" spans="1:30" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="16" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="14">
         <v>11.9</v>
       </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="23"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="45"/>
       <c r="W11" s="13"/>
       <c r="X11" s="37"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
       <c r="AD11" s="37"/>
     </row>
     <row r="12" spans="1:30" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="16"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="23"/>
+      <c r="M12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="45"/>
       <c r="W12" s="13"/>
       <c r="X12" s="37"/>
-      <c r="Y12" s="25" t="s">
+      <c r="Y12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
       <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:30" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="16"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="23"/>
+      <c r="M13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="45"/>
       <c r="W13" s="13"/>
       <c r="X13" s="37"/>
-      <c r="Y13" s="22">
+      <c r="Y13" s="26">
         <f>AB10</f>
         <v>2266</v>
       </c>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
       <c r="AD13" s="37"/>
     </row>
     <row r="14" spans="1:30" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="16"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="23"/>
+      <c r="M14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="45"/>
       <c r="W14" s="13"/>
       <c r="X14" s="37"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
       <c r="AD14" s="37"/>
     </row>
     <row r="15" spans="1:30" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="16"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="23"/>
+      <c r="M15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="45"/>
       <c r="W15" s="13"/>
       <c r="X15" s="37"/>
-      <c r="Y15" s="25" t="s">
+      <c r="Y15" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
       <c r="AD15" s="37"/>
     </row>
     <row r="16" spans="1:30" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="16"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="23"/>
+      <c r="M16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="45"/>
       <c r="W16" s="13"/>
       <c r="X16" s="36"/>
-      <c r="Y16" s="22">
+      <c r="Y16" s="26">
         <f>Y13-Y10</f>
         <v>2236.1999999999998</v>
       </c>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
       <c r="AD16" s="36"/>
     </row>
     <row r="17" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="16"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="23"/>
+      <c r="M17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="45"/>
       <c r="W17" s="13"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="39"/>
@@ -1414,248 +1420,248 @@
       <c r="AD17" s="40"/>
     </row>
     <row r="18" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="16"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="23"/>
+      <c r="M18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="45"/>
       <c r="W18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
     <row r="19" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="16"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="23"/>
+      <c r="M19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="45"/>
       <c r="W19" s="13"/>
       <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="16"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="23"/>
+      <c r="M20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="45"/>
       <c r="W20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
     <row r="21" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="16"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="23"/>
+      <c r="M21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="45"/>
       <c r="W21" s="13"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="13"/>
       <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="16"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="23"/>
+      <c r="M22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="45"/>
       <c r="W22" s="13"/>
       <c r="Y22" s="13"/>
     </row>
     <row r="23" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="16"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="23"/>
+      <c r="M23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="45"/>
       <c r="W23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
     <row r="24" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="16"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="23"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
+      <c r="M24" s="45"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
       <c r="W24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
     <row r="25" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="16"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="23"/>
+      <c r="M25" s="45"/>
       <c r="Q25" s="34"/>
-      <c r="R25" s="15" t="s">
+      <c r="R25" s="18" t="s">
         <v>21</v>
       </c>
       <c r="T25" s="34"/>
-      <c r="U25" s="14" t="s">
+      <c r="U25" s="19" t="s">
         <v>15</v>
       </c>
       <c r="W25" s="13"/>
       <c r="Y25" s="13"/>
     </row>
     <row r="26" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="16"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="23"/>
+      <c r="M26" s="45"/>
       <c r="Q26" s="34"/>
-      <c r="R26" s="16">
+      <c r="R26" s="17">
         <f xml:space="preserve"> SUM(R9:R23)</f>
         <v>29.799999999999997</v>
       </c>
       <c r="T26" s="34"/>
-      <c r="U26" s="16">
+      <c r="U26" s="17">
         <f xml:space="preserve"> SUM(U9:U23)</f>
         <v>2266</v>
       </c>
@@ -1663,42 +1669,42 @@
       <c r="Y26" s="13"/>
     </row>
     <row r="27" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="16"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="23"/>
+      <c r="M27" s="45"/>
       <c r="W27" s="13"/>
       <c r="Y27" s="13"/>
     </row>
     <row r="28" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="16"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="23"/>
+      <c r="M28" s="45"/>
       <c r="W28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="AE28" s="3"/>
@@ -1707,85 +1713,85 @@
       <c r="AH28" s="5"/>
     </row>
     <row r="29" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="16"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="23"/>
+      <c r="M29" s="45"/>
       <c r="W29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="AH29" s="5"/>
     </row>
     <row r="30" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="16"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="23"/>
+      <c r="M30" s="45"/>
       <c r="W30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="AH30" s="5"/>
     </row>
     <row r="31" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="16"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="23"/>
+      <c r="M31" s="45"/>
       <c r="W31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="AH31" s="5"/>
     </row>
     <row r="32" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="16"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="23"/>
+      <c r="M32" s="45"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
@@ -1798,22 +1804,22 @@
       <c r="AH32" s="5"/>
     </row>
     <row r="33" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="16"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="23"/>
+      <c r="M33" s="45"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
@@ -1824,22 +1830,22 @@
       <c r="Y33" s="13"/>
     </row>
     <row r="34" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="16"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="23"/>
+      <c r="M34" s="45"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
@@ -1850,22 +1856,22 @@
       <c r="W34" s="8"/>
     </row>
     <row r="35" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="16"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="45"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
@@ -1876,22 +1882,22 @@
       <c r="W35" s="13"/>
     </row>
     <row r="36" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="16"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="23"/>
+      <c r="M36" s="45"/>
       <c r="N36" s="5"/>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
@@ -1903,22 +1909,22 @@
       <c r="W36" s="13"/>
     </row>
     <row r="37" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="16"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="14"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="23"/>
+      <c r="M37" s="45"/>
       <c r="N37" s="5"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
@@ -1930,22 +1936,22 @@
       <c r="W37" s="13"/>
     </row>
     <row r="38" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="16"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="14"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="23"/>
+      <c r="M38" s="45"/>
       <c r="N38" s="5"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
@@ -1957,22 +1963,22 @@
       <c r="W38" s="13"/>
     </row>
     <row r="39" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="16"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="23"/>
+      <c r="M39" s="45"/>
       <c r="N39" s="5"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
@@ -1984,22 +1990,22 @@
       <c r="W39" s="13"/>
     </row>
     <row r="40" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="16"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="14"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="23"/>
+      <c r="M40" s="45"/>
       <c r="N40" s="5"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
@@ -2011,22 +2017,22 @@
       <c r="W40" s="13"/>
     </row>
     <row r="41" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="16"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="23"/>
+      <c r="M41" s="45"/>
       <c r="N41" s="5"/>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
@@ -2038,22 +2044,22 @@
       <c r="W41" s="13"/>
     </row>
     <row r="42" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="16"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="14"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="23"/>
+      <c r="M42" s="45"/>
       <c r="N42" s="5"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
@@ -2065,22 +2071,22 @@
       <c r="W42" s="13"/>
     </row>
     <row r="43" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="16"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="14"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="23"/>
+      <c r="M43" s="45"/>
       <c r="N43" s="5"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
@@ -2092,22 +2098,22 @@
       <c r="W43" s="13"/>
     </row>
     <row r="44" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="16"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="14"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="23"/>
+      <c r="M44" s="45"/>
       <c r="N44" s="5"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
@@ -2119,22 +2125,22 @@
       <c r="W44" s="13"/>
     </row>
     <row r="45" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="16"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="14"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="23"/>
+      <c r="M45" s="45"/>
       <c r="N45" s="5"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -2146,22 +2152,22 @@
       <c r="W45" s="13"/>
     </row>
     <row r="46" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="16"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="14"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="23"/>
+      <c r="M46" s="45"/>
       <c r="N46" s="5"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -2173,22 +2179,22 @@
       <c r="W46" s="13"/>
     </row>
     <row r="47" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="16"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="14"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="23"/>
+      <c r="M47" s="45"/>
       <c r="N47" s="5"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
@@ -2200,22 +2206,22 @@
       <c r="W47" s="13"/>
     </row>
     <row r="48" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="16"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="14"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="23"/>
+      <c r="M48" s="45"/>
       <c r="N48" s="5"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
@@ -2227,22 +2233,22 @@
       <c r="W48" s="13"/>
     </row>
     <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="16"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="14"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="23"/>
+      <c r="M49" s="45"/>
       <c r="N49" s="5"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
@@ -2254,22 +2260,22 @@
       <c r="W49" s="13"/>
     </row>
     <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="16"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="14"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="23"/>
+      <c r="M50" s="45"/>
       <c r="N50" s="5"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -2281,22 +2287,22 @@
       <c r="W50" s="13"/>
     </row>
     <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="16"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="14"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="23"/>
+      <c r="M51" s="45"/>
       <c r="N51" s="5"/>
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
@@ -2308,22 +2314,22 @@
       <c r="W51" s="13"/>
     </row>
     <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="16"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="14"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="23"/>
+      <c r="M52" s="45"/>
       <c r="N52" s="5"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
@@ -2335,22 +2341,22 @@
       <c r="W52" s="13"/>
     </row>
     <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="16"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="14"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="23"/>
+      <c r="M53" s="45"/>
       <c r="N53" s="5"/>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
@@ -2362,22 +2368,22 @@
       <c r="W53" s="13"/>
     </row>
     <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="16"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="14"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="23"/>
+      <c r="M54" s="45"/>
       <c r="N54" s="5"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
@@ -2389,22 +2395,22 @@
       <c r="W54" s="13"/>
     </row>
     <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="16"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="14"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="23"/>
+      <c r="M55" s="45"/>
       <c r="N55" s="5"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
@@ -2416,22 +2422,22 @@
       <c r="W55" s="13"/>
     </row>
     <row r="56" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="16"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="14"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="23"/>
+      <c r="M56" s="45"/>
       <c r="N56" s="5"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
@@ -2443,22 +2449,22 @@
       <c r="W56" s="13"/>
     </row>
     <row r="57" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="16"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="14"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="23"/>
+      <c r="M57" s="45"/>
       <c r="N57" s="4"/>
       <c r="P57" s="13"/>
       <c r="Q57" s="13"/>
@@ -2470,22 +2476,22 @@
       <c r="W57" s="13"/>
     </row>
     <row r="58" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="23"/>
+      <c r="J58" s="45"/>
       <c r="K58" s="10"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="23"/>
+      <c r="M58" s="45"/>
       <c r="N58" s="3"/>
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
@@ -2497,22 +2503,22 @@
       <c r="W58" s="13"/>
     </row>
     <row r="59" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="23"/>
+      <c r="J59" s="45"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="23"/>
+      <c r="M59" s="45"/>
       <c r="N59" s="3"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
@@ -2524,22 +2530,22 @@
       <c r="W59" s="13"/>
     </row>
     <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="23"/>
+      <c r="J60" s="45"/>
       <c r="K60" s="10"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="23"/>
+      <c r="M60" s="45"/>
       <c r="N60" s="3"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
@@ -2551,22 +2557,22 @@
       <c r="W60" s="13"/>
     </row>
     <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="16"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="14"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="16"/>
+      <c r="H61" s="14"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="23"/>
+      <c r="J61" s="45"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="23"/>
+      <c r="M61" s="45"/>
       <c r="N61" s="3"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="13"/>
@@ -2578,22 +2584,22 @@
       <c r="W61" s="13"/>
     </row>
     <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="16"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="14"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="23"/>
+      <c r="M62" s="45"/>
       <c r="N62" s="3"/>
       <c r="P62" s="13"/>
       <c r="Q62" s="13"/>
@@ -2605,22 +2611,22 @@
       <c r="W62" s="13"/>
     </row>
     <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="16"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="14"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="23"/>
+      <c r="M63" s="45"/>
       <c r="N63" s="3"/>
       <c r="P63" s="13"/>
       <c r="Q63" s="13"/>
@@ -2632,22 +2638,22 @@
       <c r="W63" s="13"/>
     </row>
     <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="16"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="14"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="23"/>
+      <c r="M64" s="45"/>
       <c r="N64" s="3"/>
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
@@ -2659,22 +2665,22 @@
       <c r="W64" s="13"/>
     </row>
     <row r="65" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="16"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="14"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="23"/>
+      <c r="M65" s="45"/>
       <c r="N65" s="3"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="13"/>
@@ -2686,22 +2692,22 @@
       <c r="W65" s="13"/>
     </row>
     <row r="66" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="16"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="14"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="23"/>
+      <c r="M66" s="45"/>
       <c r="N66" s="3"/>
       <c r="P66" s="13"/>
       <c r="Q66" s="13"/>
@@ -2713,22 +2719,22 @@
       <c r="W66" s="13"/>
     </row>
     <row r="67" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="16"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="14"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="23"/>
+      <c r="M67" s="45"/>
       <c r="N67" s="3"/>
       <c r="P67" s="13"/>
       <c r="Q67" s="13"/>
@@ -2740,22 +2746,22 @@
       <c r="W67" s="13"/>
     </row>
     <row r="68" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="16"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="14"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="23"/>
+      <c r="M68" s="45"/>
       <c r="N68" s="3"/>
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
@@ -2767,22 +2773,22 @@
       <c r="W68" s="13"/>
     </row>
     <row r="69" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="16"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="14"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="23"/>
+      <c r="M69" s="45"/>
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
@@ -2793,67 +2799,67 @@
       <c r="W69" s="13"/>
     </row>
     <row r="70" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
     </row>
     <row r="71" spans="1:23" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" s="2"/>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I71" s="45" t="s">
+      <c r="I71" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="31"/>
-      <c r="K71" s="49" t="s">
+      <c r="J71" s="28"/>
+      <c r="K71" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="L71" s="14" t="s">
+      <c r="L71" s="19" t="s">
         <v>36</v>
       </c>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="2"/>
-      <c r="F72" s="16">
+      <c r="F72" s="17">
         <f>SUM(F9:F69)</f>
         <v>0</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="17">
         <f>SUM(G9:G69)</f>
         <v>0</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H72" s="17">
         <f>SUM(H9:H69)</f>
         <v>0</v>
       </c>
-      <c r="I72" s="46">
+      <c r="I72" s="21">
         <f>SUM(I9:I69)</f>
         <v>0</v>
       </c>
-      <c r="J72" s="31"/>
-      <c r="K72" s="50">
+      <c r="J72" s="28"/>
+      <c r="K72" s="49">
         <f>SUM(K9:K69)</f>
         <v>0</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L72" s="17">
         <f>SUM(L9:L69)</f>
         <v>0</v>
       </c>
@@ -2861,70 +2867,80 @@
     </row>
     <row r="73" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="2"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="19"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="51"/>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="1:23" ht="38" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74" s="2"/>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="51" t="s">
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="L74" s="30"/>
+      <c r="L74" s="33"/>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75" s="2"/>
-      <c r="F75" s="29">
+      <c r="F75" s="26">
         <f>SUM(F72,G72,H72)</f>
         <v>0</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="31"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="28"/>
       <c r="K75" s="52">
         <f>SUM(K72,L72)</f>
         <v>0</v>
       </c>
-      <c r="L75" s="29"/>
+      <c r="L75" s="26"/>
     </row>
     <row r="76" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76" s="2"/>
-      <c r="J76" s="31"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="54"/>
     </row>
     <row r="77" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77" s="2"/>
-      <c r="F77" s="32" t="s">
+      <c r="F77" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="31"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="54"/>
     </row>
     <row r="78" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D78" s="2"/>
-      <c r="F78" s="22">
+      <c r="F78" s="26">
         <f>SUM(F72,I72)</f>
         <v>0</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="31"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="54"/>
     </row>
     <row r="79" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D79" s="2"/>
@@ -3003,36 +3019,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J71:J78"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="X7:X16"/>
-    <mergeCell ref="AD7:AD16"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="P24:V24"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="J7:J69"/>
-    <mergeCell ref="A10:B69"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A70:M70"/>
-    <mergeCell ref="M7:M69"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="X6:AD6"/>
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="S7:S23"/>
@@ -3049,6 +3035,36 @@
     <mergeCell ref="Y7:AC7"/>
     <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="A10:B69"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A70:M70"/>
+    <mergeCell ref="M7:M69"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="X7:X16"/>
+    <mergeCell ref="AD7:AD16"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="P24:V24"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J71:J78"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="J7:J69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
